--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB3F04-8826-48EB-BB10-6611C2A1A7BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7765561-F680-46D1-BAFB-6EE32E94BA52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -421,36 +421,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UMLで設計し、Javaで実装する。</t>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第一反復ではJavaで管理する。</t>
-    <rPh sb="0" eb="4">
-      <t>ダイイチハンプク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第一反復ではコンソールで操作する。</t>
-    <rPh sb="0" eb="4">
-      <t>ダイイチハンプク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>GUIへ拡張できるように設計する。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -479,19 +449,6 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>設計段階で検討する。</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1174,8 +1131,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1645,23 +1602,17 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
@@ -1723,16 +1674,17 @@
       <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="D22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -1760,9 +1712,7 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
@@ -2539,18 +2489,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2572,18 +2522,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7765561-F680-46D1-BAFB-6EE32E94BA52}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8706D04-FE54-40E8-9337-9FFE8522DEA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1230" windowWidth="15375" windowHeight="7965" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -408,19 +408,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>オブジェクト指向で設計・実装する。</t>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>GUIへ拡張できるように設計する。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -449,6 +436,71 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>拡張性の高い設計、実装を行う。</t>
+    <rPh sb="0" eb="3">
+      <t>カクチョウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第一反復では検討しない。</t>
+    <rPh sb="0" eb="4">
+      <t>ダイイチハンプク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクト指向で設計、実装する。</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン機能を設ける。</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インターフェース、サブクラス等の使用を検討する。</t>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1131,8 +1183,8 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1568,7 +1620,9 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
@@ -1602,9 +1656,11 @@
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
@@ -1672,9 +1728,11 @@
         <v>22</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -1682,9 +1740,11 @@
         <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
@@ -1712,7 +1772,9 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
@@ -2489,18 +2551,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,6 +2584,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2535,12 +2605,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_requirements/非機能要求一覧.xlsx
+++ b/01_requirements/非機能要求一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8706D04-FE54-40E8-9337-9FFE8522DEA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BA0F8-6F76-4279-BEB8-208C8BDC5C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1230" windowWidth="15375" windowHeight="7965" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>非機能要求</t>
     <rPh sb="0" eb="1">
@@ -469,19 +469,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>オブジェクト指向で設計、実装する。</t>
-    <rPh sb="6" eb="8">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ログイン機能を設ける。</t>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
@@ -492,15 +479,35 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>インターフェース、サブクラス等の使用を検討する。</t>
-    <rPh sb="14" eb="15">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケントウ</t>
+    <t>標準入出力はCUIクラス内のみで行うようにする。</t>
+    <rPh sb="0" eb="5">
+      <t>ヒョウジュンニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UIやデータ操作のクラスを切り分ける。</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DAOを利用する。</t>
+    <rPh sb="4" eb="6">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1184,7 +1191,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1621,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1659,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1731,7 +1738,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1743,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1773,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -2551,18 +2558,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2584,14 +2591,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2605,4 +2604,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>